--- a/src/Backend/Statistics/Millimort_Data.xlsx
+++ b/src/Backend/Statistics/Millimort_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="DayFigures"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Year</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>Month</t>
-  </si>
-  <si>
-    <t>Figures</t>
   </si>
   <si>
     <t>January</t>
@@ -168,7 +165,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +175,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -246,7 +249,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -563,7 +566,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -571,7 +574,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4">
         <v>13.718</v>
@@ -579,7 +582,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4">
         <v>12.204</v>
@@ -587,7 +590,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4">
         <v>14.237</v>
@@ -595,7 +598,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4">
         <v>13.248</v>
@@ -603,7 +606,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4">
         <v>13.345</v>
@@ -611,7 +614,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4">
         <v>16.261</v>
@@ -619,7 +622,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4">
         <v>16.987</v>
@@ -637,7 +640,7 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -650,12 +653,12 @@
         <v>24</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4">
         <v>7.5884</v>
@@ -663,7 +666,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4">
         <v>8.3006</v>
@@ -671,7 +674,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4">
         <v>8.2408</v>
@@ -679,7 +682,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4">
         <v>7.3985</v>
@@ -687,7 +690,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4">
         <v>7.3565</v>
@@ -695,7 +698,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4">
         <v>7.4427</v>
@@ -703,7 +706,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4">
         <v>8.4931</v>
@@ -711,7 +714,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4">
         <v>10.8235</v>
@@ -719,7 +722,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4">
         <v>8.471</v>
@@ -727,7 +730,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="4">
         <v>8.7336</v>
@@ -735,7 +738,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4">
         <v>7.5256</v>
@@ -743,7 +746,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="4">
         <v>9.6257</v>
@@ -981,7 +984,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -997,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
